--- a/public/import/templates/导入模板_转产换型时间表.xlsx
+++ b/public/import/templates/导入模板_转产换型时间表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19580" windowHeight="8320"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="导入转产换型时间表" sheetId="1" r:id="rId1"/>
@@ -35,13 +35,13 @@
     <t>值类型编码（前）(必填)</t>
   </si>
   <si>
-    <t>值类型名称（前）(必填)</t>
+    <t>值类型名称（前）</t>
   </si>
   <si>
     <t>值类型编码（后）(必填)</t>
   </si>
   <si>
-    <t>值类型名称（后）(必填)</t>
+    <t>值类型名称（后）</t>
   </si>
   <si>
     <t>切换时长(必填)</t>
@@ -1239,18 +1239,18 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="35.0909090909091" customWidth="1"/>
-    <col min="2" max="3" width="37.3636363636364" customWidth="1"/>
-    <col min="4" max="5" width="35.2727272727273" customWidth="1"/>
+    <col min="1" max="1" width="35.0884955752212" customWidth="1"/>
+    <col min="2" max="3" width="37.3628318584071" customWidth="1"/>
+    <col min="4" max="5" width="35.2743362831858" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:6">
+    <row r="1" ht="15.75" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/public/import/templates/导入模板_转产换型时间表.xlsx
+++ b/public/import/templates/导入模板_转产换型时间表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="19580" windowHeight="8320"/>
   </bookViews>
   <sheets>
     <sheet name="导入转产换型时间表" sheetId="1" r:id="rId1"/>
@@ -35,13 +35,13 @@
     <t>值类型编码（前）(必填)</t>
   </si>
   <si>
-    <t>值类型名称（前）</t>
+    <t>值类型名称（前）(必填)</t>
   </si>
   <si>
     <t>值类型编码（后）(必填)</t>
   </si>
   <si>
-    <t>值类型名称（后）</t>
+    <t>值类型名称（后）(必填)</t>
   </si>
   <si>
     <t>切换时长(必填)</t>
@@ -1239,18 +1239,18 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="35.0884955752212" customWidth="1"/>
-    <col min="2" max="3" width="37.3628318584071" customWidth="1"/>
-    <col min="4" max="5" width="35.2743362831858" customWidth="1"/>
+    <col min="1" max="1" width="35.0909090909091" customWidth="1"/>
+    <col min="2" max="3" width="37.3636363636364" customWidth="1"/>
+    <col min="4" max="5" width="35.2727272727273" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:6">
+    <row r="1" ht="16.5" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
